--- a/pandas_openpyxl.xlsx
+++ b/pandas_openpyxl.xlsx
@@ -447,22 +447,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Why would you do painting?</t>
+          <t>When/If you are in rainy day,why would you painting?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>When would you do painting?</t>
+          <t>When/If you are in rainy day,when would you do painting?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Who would you do painting?</t>
+          <t>When/If you are in rainy day,who would you do painting?</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>What would you like in return for doing painting?</t>
+          <t>When/If you are in rainy day,what would you like in return for doing painting?</t>
         </is>
       </c>
     </row>
